--- a/contratos/contratos-11-2011.xlsx
+++ b/contratos/contratos-11-2011.xlsx
@@ -382,10 +382,10 @@
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>GALVAN GUILLERMO ANDRES</t>
@@ -415,7 +415,7 @@
     <t>CHARRIERE MARY MABEL</t>
   </si>
   <si>
-    <t>GIMENEZ, ROBERTO ADRIAN</t>
+    <t>GIMENEZ. ROBERTO ADRIAN</t>
   </si>
   <si>
     <t>GONZALEZ LUIS MARIA</t>
@@ -661,253 +661,253 @@
     <t>91</t>
   </si>
   <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>5.522,56</t>
-  </si>
-  <si>
-    <t>292,00</t>
-  </si>
-  <si>
-    <t>141.110,32</t>
-  </si>
-  <si>
-    <t>1.509,50</t>
-  </si>
-  <si>
-    <t>8.150,95</t>
-  </si>
-  <si>
-    <t>11.505,87</t>
-  </si>
-  <si>
-    <t>1.275,00</t>
-  </si>
-  <si>
-    <t>64,50</t>
-  </si>
-  <si>
-    <t>14,90</t>
-  </si>
-  <si>
-    <t>477,50</t>
-  </si>
-  <si>
-    <t>622,92</t>
-  </si>
-  <si>
-    <t>81,09</t>
-  </si>
-  <si>
-    <t>37.453,04</t>
-  </si>
-  <si>
-    <t>33,00</t>
-  </si>
-  <si>
-    <t>188,00</t>
-  </si>
-  <si>
-    <t>29,25</t>
-  </si>
-  <si>
-    <t>1.816,62</t>
-  </si>
-  <si>
-    <t>131.162,00</t>
-  </si>
-  <si>
-    <t>348,32</t>
-  </si>
-  <si>
-    <t>3.560,00</t>
-  </si>
-  <si>
-    <t>101,74</t>
-  </si>
-  <si>
-    <t>107,78</t>
-  </si>
-  <si>
-    <t>1.780,17</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>1.620,00</t>
-  </si>
-  <si>
-    <t>1.153,00</t>
-  </si>
-  <si>
-    <t>230,64</t>
-  </si>
-  <si>
-    <t>6.065,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>131.970,00</t>
-  </si>
-  <si>
-    <t>166,25</t>
-  </si>
-  <si>
-    <t>2.943,70</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>5.936,40</t>
-  </si>
-  <si>
-    <t>2.992,50</t>
-  </si>
-  <si>
-    <t>34,50</t>
-  </si>
-  <si>
-    <t>13.454,80</t>
-  </si>
-  <si>
-    <t>1.646,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>7.865,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>572,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>442,01</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>7.095,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.960,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>48,56</t>
-  </si>
-  <si>
-    <t>56,96</t>
-  </si>
-  <si>
-    <t>97,87</t>
-  </si>
-  <si>
-    <t>1.056,00</t>
-  </si>
-  <si>
-    <t>2.000,24</t>
-  </si>
-  <si>
-    <t>1.712,40</t>
-  </si>
-  <si>
-    <t>6.333,80</t>
-  </si>
-  <si>
-    <t>9,50</t>
-  </si>
-  <si>
-    <t>1.323,75</t>
-  </si>
-  <si>
-    <t>865,15</t>
-  </si>
-  <si>
-    <t>84.800,00</t>
-  </si>
-  <si>
-    <t>406.009,48</t>
-  </si>
-  <si>
-    <t>201.400,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>196.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>173.961,00</t>
-  </si>
-  <si>
-    <t>189.484,00</t>
-  </si>
-  <si>
-    <t>207.000,00</t>
-  </si>
-  <si>
-    <t>204.524,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>444.641,06</t>
-  </si>
-  <si>
-    <t>254.255,61</t>
-  </si>
-  <si>
-    <t>767,65</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>5522.56</t>
+  </si>
+  <si>
+    <t>292.00</t>
+  </si>
+  <si>
+    <t>141110.32</t>
+  </si>
+  <si>
+    <t>1509.50</t>
+  </si>
+  <si>
+    <t>8150.95</t>
+  </si>
+  <si>
+    <t>11505.87</t>
+  </si>
+  <si>
+    <t>1275.00</t>
+  </si>
+  <si>
+    <t>64.50</t>
+  </si>
+  <si>
+    <t>14.90</t>
+  </si>
+  <si>
+    <t>477.50</t>
+  </si>
+  <si>
+    <t>622.92</t>
+  </si>
+  <si>
+    <t>81.09</t>
+  </si>
+  <si>
+    <t>37453.04</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>29.25</t>
+  </si>
+  <si>
+    <t>1816.62</t>
+  </si>
+  <si>
+    <t>131162.00</t>
+  </si>
+  <si>
+    <t>348.32</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>101.74</t>
+  </si>
+  <si>
+    <t>107.78</t>
+  </si>
+  <si>
+    <t>1780.17</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>1620.00</t>
+  </si>
+  <si>
+    <t>1153.00</t>
+  </si>
+  <si>
+    <t>230.64</t>
+  </si>
+  <si>
+    <t>6065.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>131970.00</t>
+  </si>
+  <si>
+    <t>166.25</t>
+  </si>
+  <si>
+    <t>2943.70</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>5936.40</t>
+  </si>
+  <si>
+    <t>2992.50</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>13454.80</t>
+  </si>
+  <si>
+    <t>1646.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>7865.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>572.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>442.01</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>7095.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3960.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>48.56</t>
+  </si>
+  <si>
+    <t>56.96</t>
+  </si>
+  <si>
+    <t>97.87</t>
+  </si>
+  <si>
+    <t>1056.00</t>
+  </si>
+  <si>
+    <t>2000.24</t>
+  </si>
+  <si>
+    <t>1712.40</t>
+  </si>
+  <si>
+    <t>6333.80</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>1323.75</t>
+  </si>
+  <si>
+    <t>865.15</t>
+  </si>
+  <si>
+    <t>84800.00</t>
+  </si>
+  <si>
+    <t>406009.48</t>
+  </si>
+  <si>
+    <t>201400.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>196200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>173961.00</t>
+  </si>
+  <si>
+    <t>189484.00</t>
+  </si>
+  <si>
+    <t>207000.00</t>
+  </si>
+  <si>
+    <t>204524.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>444641.06</t>
+  </si>
+  <si>
+    <t>254255.61</t>
+  </si>
+  <si>
+    <t>767.65</t>
+  </si>
+  <si>
+    <t>3700.00</t>
   </si>
 </sst>
 </file>
